--- a/src/test/resources/TestDriver/TestEvent/Model/EVENT_TEST.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/Model/EVENT_TEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F893B2-9801-41CF-A41C-9FBA4C8B9952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D5CE06-DBD8-4FA4-B7A7-A35FE0F7C41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12645" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORIG" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
   <si>
     <t>Transactions</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>TRANS2</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_LOAN_TERM_CURRENT</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_LOAN_TERM_PRIOR</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_LOAN_STATUS_CURRENT</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_LOAN_STATUS_PRIOR</t>
   </si>
 </sst>
 </file>
@@ -165,7 +177,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +211,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -302,6 +320,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,56 +634,24 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>44592</v>
-      </c>
-      <c r="B2" s="15">
-        <v>44591</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9">
-        <v>100000</v>
-      </c>
-      <c r="F2" s="9">
-        <v>100</v>
-      </c>
-      <c r="G2" s="9">
-        <v>100000</v>
-      </c>
-      <c r="H2" s="9">
-        <v>100</v>
-      </c>
+      <c r="A2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>44592</v>
-      </c>
-      <c r="B3" s="15">
-        <v>44591</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9">
-        <v>150000</v>
-      </c>
-      <c r="F3" s="9">
-        <v>200</v>
-      </c>
-      <c r="G3" s="9">
-        <v>150000</v>
-      </c>
-      <c r="H3" s="9">
-        <v>200</v>
-      </c>
+      <c r="A3" s="19"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -822,7 +812,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -856,44 +846,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>44592</v>
-      </c>
-      <c r="B2" s="19">
-        <v>44592</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9">
-        <v>50</v>
-      </c>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>44592</v>
-      </c>
-      <c r="B3" s="19">
-        <v>44592</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9">
-        <v>8</v>
-      </c>
-      <c r="F3" s="9">
-        <v>40</v>
-      </c>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -906,10 +872,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A4:K22"/>
+  <dimension ref="A4:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,39 +892,39 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>IF(ORIG!C2="","",ORIG!C2)</f>
-        <v>LOAN1</v>
+        <v/>
       </c>
       <c r="B4">
         <f>ORIG!D2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="8">
         <f>ORIG!A2</f>
-        <v>44592</v>
+        <v>0</v>
       </c>
       <c r="D4" s="8">
         <f>ORIG!B2</f>
-        <v>44591</v>
-      </c>
-      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
         <f>IF(ORIG!E2="","",ORIG!E2)</f>
-        <v>100000</v>
+        <v/>
       </c>
       <c r="F4">
         <f>ORIG!F2</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f>ORIG!G2</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f>ORIG!H2</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f>IFERROR(E4-G4+10,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <f>F4-H4+10</f>
@@ -968,39 +934,39 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>IF(ORIG!C3="","",ORIG!C3)</f>
-        <v>LOAN1</v>
+        <v/>
       </c>
       <c r="B5">
         <f>ORIG!D3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="8">
         <f>ORIG!A3</f>
-        <v>44592</v>
+        <v>0</v>
       </c>
       <c r="D5" s="8">
         <f>ORIG!B3</f>
-        <v>44591</v>
-      </c>
-      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
         <f>IF(ORIG!E3="","",ORIG!E3)</f>
-        <v>150000</v>
+        <v/>
       </c>
       <c r="F5">
         <f>ORIG!F3</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f>ORIG!G3</f>
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f>ORIG!H3</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <f>IFERROR(E5-G5+20,0)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f>F5-H5+20</f>
@@ -1039,166 +1005,166 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="B10" s="3" t="str">
         <f>IF($A$4="","",C4)</f>
-        <v>44592</v>
-      </c>
-      <c r="C10" s="3">
+        <v/>
+      </c>
+      <c r="C10" s="3" t="str">
         <f>IF($A$4="","",D4)</f>
-        <v>44591</v>
+        <v/>
       </c>
       <c r="D10" s="20" t="str">
         <f>IF($A$4="","",A4)</f>
-        <v>LOAN1</v>
+        <v/>
       </c>
       <c r="E10" s="20" t="str">
         <f>IF($A$4="","","TRANS1")</f>
-        <v>TRANS1</v>
-      </c>
-      <c r="F10" s="13">
+        <v/>
+      </c>
+      <c r="F10" s="13" t="str">
         <f>IF($A$4="","",J4+K4)</f>
-        <v>20</v>
-      </c>
-      <c r="G10" s="20">
+        <v/>
+      </c>
+      <c r="G10" s="20" t="str">
         <f>IF($A$4="","",B4)</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="B11" s="3" t="str">
         <f>IF($A$4="","",C5)</f>
-        <v>44592</v>
-      </c>
-      <c r="C11" s="3">
+        <v/>
+      </c>
+      <c r="C11" s="3" t="str">
         <f>IF($A$4="","",D5)</f>
-        <v>44591</v>
+        <v/>
       </c>
       <c r="D11" s="20" t="str">
         <f>IF($A$4="","",A5)</f>
-        <v>LOAN1</v>
+        <v/>
       </c>
       <c r="E11" s="20" t="str">
         <f>IF($A$4="","","TRANS2")</f>
-        <v>TRANS2</v>
-      </c>
-      <c r="F11" s="14">
+        <v/>
+      </c>
+      <c r="F11" s="14" t="str">
         <f>IF($A$4="","",J5+K5)</f>
-        <v>40</v>
-      </c>
-      <c r="G11" s="20">
+        <v/>
+      </c>
+      <c r="G11" s="20" t="str">
         <f>IF($A$4="","",B5)</f>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <f t="shared" ref="B12:D13" si="0">A18</f>
-        <v>44592</v>
+        <f>A20</f>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>44592</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>LOAN1</v>
+        <f>B20</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C20</f>
+        <v>0</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="23">
-        <f>IFERROR(E18+F18,"")</f>
-        <v>60</v>
+      <c r="F12" s="23" t="str">
+        <f>IFERROR(E20+F20,"")</f>
+        <v/>
       </c>
       <c r="G12" s="24">
-        <f>D18</f>
-        <v>1</v>
+        <f>D20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>44592</v>
+        <f>A21</f>
+        <v>0</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>44592</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>LOAN1</v>
+        <f>B21</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C21</f>
+        <v>0</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="23">
-        <f>IFERROR(E19+F19,"")</f>
-        <v>48</v>
+      <c r="F13" s="23" t="str">
+        <f>IFERROR(E21+F21,"")</f>
+        <v/>
       </c>
       <c r="G13" s="24">
-        <f>D19</f>
-        <v>2</v>
+        <f>D21</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <f t="shared" ref="B14:D15" si="1">IF($E$18="","",A18)</f>
-        <v>44592</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="1"/>
-        <v>44592</v>
+      <c r="B14" s="3" t="str">
+        <f>IF($E$20="","",A20)</f>
+        <v/>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>IF($E$20="","",B20)</f>
+        <v/>
       </c>
       <c r="D14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>LOAN1</v>
+        <f>IF($E$20="","",C20)</f>
+        <v/>
       </c>
       <c r="E14" s="3" t="str">
-        <f>IF($E$18="","","TRANS5")</f>
-        <v>TRANS5</v>
-      </c>
-      <c r="F14" s="14">
-        <f>IF(E18="","",E18+F18)</f>
-        <v>60</v>
-      </c>
-      <c r="G14" s="20">
-        <f>IF($E$18="","",D18)</f>
-        <v>1</v>
+        <f>IF($E$20="","","TRANS5")</f>
+        <v/>
+      </c>
+      <c r="F14" s="14" t="str">
+        <f>IF(E20="","",E20+F20)</f>
+        <v/>
+      </c>
+      <c r="G14" s="20" t="str">
+        <f>IF($E$20="","",D20)</f>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <f t="shared" si="1"/>
-        <v>44592</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="1"/>
-        <v>44592</v>
+      <c r="B15" s="3" t="str">
+        <f>IF($E$20="","",A21)</f>
+        <v/>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f>IF($E$20="","",B21)</f>
+        <v/>
       </c>
       <c r="D15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>LOAN1</v>
+        <f>IF($E$20="","",C21)</f>
+        <v/>
       </c>
       <c r="E15" s="3" t="str">
-        <f>IF($E$18="","","TRANS5")</f>
-        <v>TRANS5</v>
-      </c>
-      <c r="F15" s="14">
-        <f>IF(E19="","",E19+F19)</f>
-        <v>48</v>
-      </c>
-      <c r="G15" s="20">
-        <f>IF($E$18="","",D19)</f>
-        <v>2</v>
+        <f>IF($E$20="","","TRANS5")</f>
+        <v/>
+      </c>
+      <c r="F15" s="14" t="str">
+        <f>IF(E21="","",E21+F21)</f>
+        <v/>
+      </c>
+      <c r="G15" s="20" t="str">
+        <f>IF($E$20="","",D21)</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
-        <f>IF(A22="","",B12)</f>
+        <f>IF(A24="","",B12)</f>
         <v/>
       </c>
       <c r="C16" s="3" t="str">
-        <f t="shared" ref="C16" si="2">IF(B16="","",B16)</f>
+        <f t="shared" ref="C16" si="0">IF(B16="","",B16)</f>
         <v/>
       </c>
       <c r="D16" s="3" t="str">
@@ -1210,7 +1176,7 @@
         <v/>
       </c>
       <c r="F16" s="32" t="str">
-        <f>IF(E16="","",A22)</f>
+        <f>IF(E16="","",A24)</f>
         <v/>
       </c>
       <c r="G16" s="32" t="str">
@@ -1218,62 +1184,166 @@
         <v/>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="35" t="str">
+        <f>IF($A$27="","",B12)</f>
+        <v/>
+      </c>
+      <c r="C17" s="35" t="str">
+        <f>IF($A$27="","",C12)</f>
+        <v/>
+      </c>
+      <c r="D17" s="37" t="str">
+        <f>IF($A$27="","",D12)</f>
+        <v/>
+      </c>
+      <c r="E17" s="35" t="str">
+        <f>IF($A$27="","","TRANS7")</f>
+        <v/>
+      </c>
+      <c r="F17" s="36" t="str">
+        <f>IF($A$27="","",A27+B27+A28+B28)</f>
+        <v/>
+      </c>
+      <c r="G17" s="36" t="str">
+        <f>IF($A$27="","",G12)</f>
+        <v/>
+      </c>
+    </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="B18" s="35" t="str">
+        <f>IF($A$27="","",B13)</f>
+        <v/>
+      </c>
+      <c r="C18" s="35" t="str">
+        <f>IF($A$27="","",C13)</f>
+        <v/>
+      </c>
+      <c r="D18" s="37" t="str">
+        <f>IF($A$27="","",D13)</f>
+        <v/>
+      </c>
+      <c r="E18" s="35" t="str">
+        <f>IF($A$27="","","TRANS8")</f>
+        <v/>
+      </c>
+      <c r="F18" s="36" t="str">
+        <f>IF($A$27="","",C27+C28+D27+D28+E27+E28+F27+F28)</f>
+        <v/>
+      </c>
+      <c r="G18" s="36" t="str">
+        <f>IF($A$27="","",G13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <f>INT_ACC!A2</f>
-        <v>44592</v>
-      </c>
-      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8">
         <f>INT_ACC!B2</f>
-        <v>44592</v>
-      </c>
-      <c r="C18" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
         <f>INT_ACC!C2</f>
-        <v>LOAN1</v>
-      </c>
-      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22">
         <f>INT_ACC!D2</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21" t="str">
         <f>IF(INT_ACC!E2="","",INT_ACC!E2)</f>
-        <v>10</v>
-      </c>
-      <c r="F18" s="21">
+        <v/>
+      </c>
+      <c r="F20" s="21">
         <f>INT_ACC!F2</f>
-        <v>50</v>
-      </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <f>INT_ACC!A3</f>
-        <v>44592</v>
-      </c>
-      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="B21" s="8">
         <f>INT_ACC!B3</f>
-        <v>44592</v>
-      </c>
-      <c r="C19" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
         <f>INT_ACC!C3</f>
-        <v>LOAN1</v>
-      </c>
-      <c r="D19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D21" s="22">
         <f>INT_ACC!D3</f>
-        <v>2</v>
-      </c>
-      <c r="E19" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21" t="str">
         <f>IF(INT_ACC!E3="","",INT_ACC!E3)</f>
-        <v>8</v>
-      </c>
-      <c r="F19" s="21">
+        <v/>
+      </c>
+      <c r="F21" s="21">
         <f>INT_ACC!F3</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="str">
         <f>IF(PMT!H2="","",PMT!H2+PMT!F4+PMT!G4+PMT!E5+PMT!H6+PMT!G7+PMT!F8+PMT!E9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>IF('RC'!$E$2="","",'RC'!E2)</f>
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <f>IF('RC'!$E$2="","",'RC'!F2)</f>
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <f>IF('RC'!$E$2="","",'RC'!G2)</f>
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <f>IF('RC'!$E$2="","",'RC'!H2)</f>
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <f>IF('RC'!$E$2="","",'RC'!I2)</f>
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <f>IF('RC'!$E$2="","",'RC'!J2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>IF('RC'!$E$2="","",'RC'!E3)</f>
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <f>IF('RC'!$E$2="","",'RC'!F3)</f>
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <f>IF('RC'!$E$2="","",'RC'!G3)</f>
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <f>IF('RC'!$E$2="","",'RC'!H3)</f>
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <f>IF('RC'!$E$2="","",'RC'!I3)</f>
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <f>IF('RC'!$E$2="","",'RC'!J3)</f>
         <v/>
       </c>
     </row>
@@ -1290,10 +1360,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1306,7 +1376,7 @@
     <col min="6" max="6" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1325,46 +1395,32 @@
       <c r="F1" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>44595</v>
-      </c>
-      <c r="B2" s="19">
-        <v>44595</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>44595</v>
-      </c>
-      <c r="B3" s="19">
-        <v>44595</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
+      <c r="G1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1377,10 +1433,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1415,159 +1471,159 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="15" t="str">
         <f>CALC!B10</f>
-        <v>44592</v>
-      </c>
-      <c r="B2" s="15">
+        <v/>
+      </c>
+      <c r="B2" s="15" t="str">
         <f>CALC!C10</f>
-        <v>44591</v>
+        <v/>
       </c>
       <c r="C2" s="26" t="str">
         <f>CALC!D10</f>
-        <v>LOAN1</v>
+        <v/>
       </c>
       <c r="D2" s="26" t="str">
         <f>CALC!E10</f>
-        <v>TRANS1</v>
-      </c>
-      <c r="E2" s="25">
+        <v/>
+      </c>
+      <c r="E2" s="25" t="str">
         <f>CALC!F10</f>
-        <v>20</v>
-      </c>
-      <c r="F2" s="16">
+        <v/>
+      </c>
+      <c r="F2" s="16" t="str">
         <f>CALC!G10</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="15" t="str">
         <f>CALC!B11</f>
-        <v>44592</v>
-      </c>
-      <c r="B3" s="15">
+        <v/>
+      </c>
+      <c r="B3" s="15" t="str">
         <f>CALC!C11</f>
-        <v>44591</v>
+        <v/>
       </c>
       <c r="C3" s="26" t="str">
         <f>CALC!D11</f>
-        <v>LOAN1</v>
+        <v/>
       </c>
       <c r="D3" s="26" t="str">
         <f>CALC!E11</f>
-        <v>TRANS2</v>
-      </c>
-      <c r="E3" s="25">
+        <v/>
+      </c>
+      <c r="E3" s="25" t="str">
         <f>CALC!F11</f>
-        <v>40</v>
-      </c>
-      <c r="F3" s="16">
+        <v/>
+      </c>
+      <c r="F3" s="16" t="str">
         <f>CALC!G11</f>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <f>CALC!B12</f>
-        <v>44592</v>
+        <v>0</v>
       </c>
       <c r="B4" s="15">
         <f>CALC!C12</f>
-        <v>44592</v>
-      </c>
-      <c r="C4" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
         <f>CALC!D12</f>
-        <v>LOAN1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="26" t="str">
         <f>CALC!E12</f>
         <v>TRANS3</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="25" t="str">
         <f>CALC!F12</f>
-        <v>60</v>
+        <v/>
       </c>
       <c r="F4" s="16">
         <f>CALC!G12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <f>CALC!B13</f>
-        <v>44592</v>
+        <v>0</v>
       </c>
       <c r="B5" s="15">
         <f>CALC!C13</f>
-        <v>44592</v>
-      </c>
-      <c r="C5" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="C5" s="26">
         <f>CALC!D13</f>
-        <v>LOAN1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="26" t="str">
         <f>CALC!E13</f>
         <v>TRANS4</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="25" t="str">
         <f>CALC!F13</f>
-        <v>48</v>
+        <v/>
       </c>
       <c r="F5" s="16">
         <f>CALC!G13</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="15" t="str">
         <f>CALC!B14</f>
-        <v>44592</v>
-      </c>
-      <c r="B6" s="15">
+        <v/>
+      </c>
+      <c r="B6" s="15" t="str">
         <f>CALC!C14</f>
-        <v>44592</v>
+        <v/>
       </c>
       <c r="C6" s="26" t="str">
         <f>CALC!D14</f>
-        <v>LOAN1</v>
+        <v/>
       </c>
       <c r="D6" s="26" t="str">
         <f>CALC!E14</f>
-        <v>TRANS5</v>
-      </c>
-      <c r="E6" s="25">
+        <v/>
+      </c>
+      <c r="E6" s="25" t="str">
         <f>CALC!F14</f>
-        <v>60</v>
-      </c>
-      <c r="F6" s="16">
+        <v/>
+      </c>
+      <c r="F6" s="16" t="str">
         <f>CALC!G14</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="15" t="str">
         <f>CALC!B15</f>
-        <v>44592</v>
-      </c>
-      <c r="B7" s="15">
+        <v/>
+      </c>
+      <c r="B7" s="15" t="str">
         <f>CALC!C15</f>
-        <v>44592</v>
+        <v/>
       </c>
       <c r="C7" s="26" t="str">
         <f>CALC!D15</f>
-        <v>LOAN1</v>
+        <v/>
       </c>
       <c r="D7" s="26" t="str">
         <f>CALC!E15</f>
-        <v>TRANS5</v>
-      </c>
-      <c r="E7" s="25">
+        <v/>
+      </c>
+      <c r="E7" s="25" t="str">
         <f>CALC!F15</f>
-        <v>48</v>
-      </c>
-      <c r="F7" s="16">
+        <v/>
+      </c>
+      <c r="F7" s="16" t="str">
         <f>CALC!G15</f>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1593,6 +1649,58 @@
       </c>
       <c r="F8" s="16" t="str">
         <f>CALC!G16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="str">
+        <f>CALC!B17</f>
+        <v/>
+      </c>
+      <c r="B9" s="15" t="str">
+        <f>CALC!C17</f>
+        <v/>
+      </c>
+      <c r="C9" s="26" t="str">
+        <f>CALC!D17</f>
+        <v/>
+      </c>
+      <c r="D9" s="26" t="str">
+        <f>CALC!E17</f>
+        <v/>
+      </c>
+      <c r="E9" s="25" t="str">
+        <f>CALC!F17</f>
+        <v/>
+      </c>
+      <c r="F9" s="16" t="str">
+        <f>CALC!G17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="str">
+        <f>CALC!B18</f>
+        <v/>
+      </c>
+      <c r="B10" s="15" t="str">
+        <f>CALC!C18</f>
+        <v/>
+      </c>
+      <c r="C10" s="26" t="str">
+        <f>CALC!D18</f>
+        <v/>
+      </c>
+      <c r="D10" s="26" t="str">
+        <f>CALC!E18</f>
+        <v/>
+      </c>
+      <c r="E10" s="25" t="str">
+        <f>CALC!F18</f>
+        <v/>
+      </c>
+      <c r="F10" s="16" t="str">
+        <f>CALC!G18</f>
         <v/>
       </c>
     </row>
@@ -1609,8 +1717,8 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestDriver/TestEvent/Model/EVENT_TEST.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/Model/EVENT_TEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5AE819-3E02-4F68-A113-395AB8C5C33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED9FF3F-6829-4CAF-AFB6-71014523F813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORIG" sheetId="2" r:id="rId1"/>
@@ -220,7 +220,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -426,7 +426,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,10 +453,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,10 +462,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,8 +1045,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,26 +1061,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -1101,7 +1101,7 @@
       <c r="F4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1122,8 +1122,8 @@
         <f>IF(C5="","",ORIG!$D$2)</f>
         <v/>
       </c>
-      <c r="E5" s="25" t="str">
-        <f>IF(D5="","",H5)</f>
+      <c r="E5" s="19" t="str">
+        <f t="shared" ref="E5:E12" si="0">IF(D5="","",H5)</f>
         <v/>
       </c>
       <c r="F5" s="13" t="str">
@@ -1140,7 +1140,7 @@
         <v/>
       </c>
       <c r="B6" s="2" t="str">
-        <f t="shared" ref="B6:B12" si="0">IF(A6="","",A6)</f>
+        <f t="shared" ref="B6:B12" si="1">IF(A6="","",A6)</f>
         <v/>
       </c>
       <c r="C6" s="13" t="str">
@@ -1151,8 +1151,8 @@
         <f>IF(C6="","",ORIG!$D$2)</f>
         <v/>
       </c>
-      <c r="E6" s="25" t="str">
-        <f>IF(D6="","",H6)</f>
+      <c r="E6" s="19" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F6" s="13" t="str">
@@ -1165,11 +1165,11 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
-        <f t="shared" ref="A7:A12" si="1">IF(A6="","",A6)</f>
+        <f t="shared" ref="A7:A12" si="2">IF(A6="","",A6)</f>
         <v/>
       </c>
       <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C7" s="13" t="str">
@@ -1180,8 +1180,8 @@
         <f>IF(C7="","",ORIG!$D$2)</f>
         <v/>
       </c>
-      <c r="E7" s="25" t="str">
-        <f>IF(D7="","",H7)</f>
+      <c r="E7" s="19" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F7" s="13" t="str">
@@ -1194,11 +1194,11 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C8" s="13" t="str">
@@ -1209,8 +1209,8 @@
         <f>IF(C8="","",ORIG!$D$2)</f>
         <v/>
       </c>
-      <c r="E8" s="25" t="str">
-        <f>IF(D8="","",H8)</f>
+      <c r="E8" s="19" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F8" s="13" t="str">
@@ -1223,11 +1223,11 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C9" s="13" t="str">
@@ -1238,8 +1238,8 @@
         <f>IF(C9="","",ORIG!$D$3)</f>
         <v/>
       </c>
-      <c r="E9" s="25" t="str">
-        <f>IF(D9="","",H9)</f>
+      <c r="E9" s="19" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F9" s="13" t="str">
@@ -1252,11 +1252,11 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C10" s="13" t="str">
@@ -1267,8 +1267,8 @@
         <f>IF(C10="","",ORIG!$D$3)</f>
         <v/>
       </c>
-      <c r="E10" s="25" t="str">
-        <f>IF(D10="","",H10)</f>
+      <c r="E10" s="19" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F10" s="13" t="str">
@@ -1281,11 +1281,11 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C11" s="13" t="str">
@@ -1296,8 +1296,8 @@
         <f>IF(C11="","",ORIG!$D$3)</f>
         <v/>
       </c>
-      <c r="E11" s="25" t="str">
-        <f>IF(D11="","",H11)</f>
+      <c r="E11" s="19" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F11" s="13" t="str">
@@ -1310,11 +1310,11 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C12" s="13" t="str">
@@ -1325,8 +1325,8 @@
         <f>IF(C12="","",ORIG!$D$3)</f>
         <v/>
       </c>
-      <c r="E12" s="25" t="str">
-        <f>IF(D12="","",H12)</f>
+      <c r="E12" s="19" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F12" s="13" t="str">
@@ -1339,25 +1339,25 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -1378,7 +1378,7 @@
       <c r="F16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1399,8 +1399,8 @@
         <f>IF(C17="","",INT_ACC!$D$2)</f>
         <v/>
       </c>
-      <c r="E17" s="25" t="str">
-        <f>IF(D17="","",H17)</f>
+      <c r="E17" s="19" t="str">
+        <f t="shared" ref="E17:E24" si="3">IF(D17="","",H17)</f>
         <v/>
       </c>
       <c r="F17" s="13" t="str">
@@ -1417,7 +1417,7 @@
         <v/>
       </c>
       <c r="B18" s="2" t="str">
-        <f t="shared" ref="B18:B24" si="2">IF(A18="","",A18)</f>
+        <f t="shared" ref="B18:B24" si="4">IF(A18="","",A18)</f>
         <v/>
       </c>
       <c r="C18" s="13" t="str">
@@ -1428,8 +1428,8 @@
         <f>IF(C18="","",INT_ACC!$D$2)</f>
         <v/>
       </c>
-      <c r="E18" s="25" t="str">
-        <f>IF(D18="","",H18)</f>
+      <c r="E18" s="19" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F18" s="13" t="str">
@@ -1442,11 +1442,11 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
-        <f t="shared" ref="A19:A24" si="3">IF(A18="","",A18)</f>
+        <f t="shared" ref="A19:A24" si="5">IF(A18="","",A18)</f>
         <v/>
       </c>
       <c r="B19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C19" s="13" t="str">
@@ -1457,8 +1457,8 @@
         <f>IF(C19="","",INT_ACC!$D$2)</f>
         <v/>
       </c>
-      <c r="E19" s="25" t="str">
-        <f>IF(D19="","",H19)</f>
+      <c r="E19" s="19" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F19" s="13" t="str">
@@ -1471,11 +1471,11 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C20" s="13" t="str">
@@ -1486,8 +1486,8 @@
         <f>IF(C20="","",INT_ACC!$D$2)</f>
         <v/>
       </c>
-      <c r="E20" s="25" t="str">
-        <f>IF(D20="","",H20)</f>
+      <c r="E20" s="19" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F20" s="13" t="str">
@@ -1500,11 +1500,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C21" s="13" t="str">
@@ -1515,8 +1515,8 @@
         <f>IF(C21="","",INT_ACC!$D$3)</f>
         <v/>
       </c>
-      <c r="E21" s="25" t="str">
-        <f>IF(D21="","",H21)</f>
+      <c r="E21" s="19" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F21" s="13" t="str">
@@ -1529,11 +1529,11 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C22" s="13" t="str">
@@ -1544,8 +1544,8 @@
         <f>IF(C22="","",INT_ACC!$D$3)</f>
         <v/>
       </c>
-      <c r="E22" s="25" t="str">
-        <f>IF(D22="","",H22)</f>
+      <c r="E22" s="19" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F22" s="13" t="str">
@@ -1558,11 +1558,11 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C23" s="13" t="str">
@@ -1573,8 +1573,8 @@
         <f>IF(C23="","",INT_ACC!$D$3)</f>
         <v/>
       </c>
-      <c r="E23" s="25" t="str">
-        <f>IF(D23="","",H23)</f>
+      <c r="E23" s="19" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F23" s="13" t="str">
@@ -1587,11 +1587,11 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C24" s="13" t="str">
@@ -1602,8 +1602,8 @@
         <f>IF(C24="","",INT_ACC!$D$3)</f>
         <v/>
       </c>
-      <c r="E24" s="25" t="str">
-        <f>IF(D24="","",H24)</f>
+      <c r="E24" s="19" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F24" s="13" t="str">
@@ -1616,25 +1616,25 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
@@ -1655,7 +1655,7 @@
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1669,15 +1669,15 @@
         <v/>
       </c>
       <c r="C29" s="13" t="str">
-        <f>IF(B17="","",PMT!$C$2)</f>
+        <f>IF(B29="","",PMT!$C$2)</f>
         <v/>
       </c>
       <c r="D29" s="13" t="str">
         <f>IF(C29="","",PMT!D4)</f>
         <v/>
       </c>
-      <c r="E29" s="25" t="str">
-        <f t="shared" ref="E29:E36" si="4">IF(D29="","",H29)</f>
+      <c r="E29" s="19" t="str">
+        <f t="shared" ref="E29:E36" si="6">IF(D29="","",H29)</f>
         <v/>
       </c>
       <c r="F29" s="13" t="str">
@@ -1694,19 +1694,19 @@
         <v/>
       </c>
       <c r="B30" s="2" t="str">
-        <f t="shared" ref="B30:B36" si="5">IF(A30="","",A30)</f>
+        <f t="shared" ref="B30:B36" si="7">IF(A30="","",A30)</f>
         <v/>
       </c>
       <c r="C30" s="13" t="str">
-        <f>IF(B18="","",PMT!$C$2)</f>
+        <f>IF(B30="","",PMT!$C$2)</f>
         <v/>
       </c>
       <c r="D30" s="13" t="str">
         <f>IF(C30="","",PMT!D8)</f>
         <v/>
       </c>
-      <c r="E30" s="25" t="str">
-        <f t="shared" si="4"/>
+      <c r="E30" s="19" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F30" s="13" t="str">
@@ -1719,23 +1719,23 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
-        <f t="shared" ref="A31:A36" si="6">IF(A30="","",A30)</f>
+        <f t="shared" ref="A31:A36" si="8">IF(A30="","",A30)</f>
         <v/>
       </c>
       <c r="B31" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C31" s="13" t="str">
-        <f>IF(B19="","",PMT!$C$2)</f>
+        <f>IF(B31="","",PMT!$C$2)</f>
         <v/>
       </c>
       <c r="D31" s="13" t="str">
         <f>IF(C31="","",PMT!D3)</f>
         <v/>
       </c>
-      <c r="E31" s="25" t="str">
-        <f t="shared" si="4"/>
+      <c r="E31" s="19" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F31" s="13" t="str">
@@ -1748,23 +1748,23 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B32" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C32" s="13" t="str">
-        <f>IF(B20="","",PMT!$C$2)</f>
+        <f>IF(B32="","",PMT!$C$2)</f>
         <v/>
       </c>
       <c r="D32" s="13" t="str">
         <f>IF(C32="","",PMT!D7)</f>
         <v/>
       </c>
-      <c r="E32" s="25" t="str">
-        <f t="shared" si="4"/>
+      <c r="E32" s="19" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F32" s="13" t="str">
@@ -1777,23 +1777,23 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B33" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C33" s="13" t="str">
-        <f>IF(B21="","",PMT!$C$2)</f>
+        <f>IF(B33="","",PMT!$C$2)</f>
         <v/>
       </c>
       <c r="D33" s="13" t="str">
         <f>IF(C33="","",PMT!D2)</f>
         <v/>
       </c>
-      <c r="E33" s="25" t="str">
-        <f t="shared" si="4"/>
+      <c r="E33" s="19" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F33" s="13" t="str">
@@ -1806,23 +1806,23 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B34" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C34" s="13" t="str">
-        <f>IF(B22="","",PMT!$C$2)</f>
+        <f>IF(B34="","",PMT!$C$2)</f>
         <v/>
       </c>
       <c r="D34" s="13" t="str">
         <f>IF(C34="","",PMT!D3)</f>
         <v/>
       </c>
-      <c r="E34" s="25" t="str">
-        <f t="shared" si="4"/>
+      <c r="E34" s="19" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F34" s="13" t="str">
@@ -1835,23 +1835,23 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B35" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C35" s="13" t="str">
-        <f>IF(B23="","",PMT!$C$2)</f>
+        <f>IF(B35="","",PMT!$C$2)</f>
         <v/>
       </c>
       <c r="D35" s="13" t="str">
         <f>IF(C35="","",PMT!D5)</f>
         <v/>
       </c>
-      <c r="E35" s="25" t="str">
-        <f t="shared" si="4"/>
+      <c r="E35" s="19" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F35" s="13" t="str">
@@ -1864,23 +1864,23 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B36" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C36" s="13" t="str">
-        <f>IF(B24="","",PMT!$C$2)</f>
+        <f>IF(B36="","",PMT!$C$2)</f>
         <v/>
       </c>
       <c r="D36" s="13" t="str">
         <f>IF(C36="","",PMT!D6)</f>
         <v/>
       </c>
-      <c r="E36" s="25" t="str">
-        <f t="shared" si="4"/>
+      <c r="E36" s="19" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F36" s="13" t="str">
@@ -1893,25 +1893,25 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
@@ -1932,7 +1932,7 @@
       <c r="F40" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
         <v/>
       </c>
       <c r="B41" s="2" t="str">
-        <f t="shared" ref="B41:B54" si="7">IF(A41="","",A41)</f>
+        <f t="shared" ref="B41:B54" si="9">IF(A41="","",A41)</f>
         <v/>
       </c>
       <c r="C41" s="13" t="str">
@@ -1953,8 +1953,8 @@
         <f>IF(C41="","",'RC'!$D$2)</f>
         <v/>
       </c>
-      <c r="E41" s="25" t="str">
-        <f t="shared" ref="E41:E54" si="8">IF(D41="","",H41)</f>
+      <c r="E41" s="19" t="str">
+        <f t="shared" ref="E41:E54" si="10">IF(D41="","",H41)</f>
         <v/>
       </c>
       <c r="F41" s="13" t="str">
@@ -1967,11 +1967,11 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
-        <f t="shared" ref="A42:A54" si="9">IF(A41="","",A41)</f>
+        <f t="shared" ref="A42:A54" si="11">IF(A41="","",A41)</f>
         <v/>
       </c>
       <c r="B42" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C42" s="13" t="str">
@@ -1982,8 +1982,8 @@
         <f>IF(C42="","",'RC'!$D$2)</f>
         <v/>
       </c>
-      <c r="E42" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="E42" s="19" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F42" s="13" t="str">
@@ -1996,11 +1996,11 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B43" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B43" s="2" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C43" s="13" t="str">
@@ -2011,8 +2011,8 @@
         <f>IF(C43="","",'RC'!$D$2)</f>
         <v/>
       </c>
-      <c r="E43" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="E43" s="19" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F43" s="13" t="str">
@@ -2025,11 +2025,11 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B44" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B44" s="2" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C44" s="13" t="str">
@@ -2040,8 +2040,8 @@
         <f>IF(C44="","",'RC'!$D$2)</f>
         <v/>
       </c>
-      <c r="E44" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="E44" s="19" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F44" s="13" t="str">
@@ -2054,11 +2054,11 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B45" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B45" s="2" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C45" s="13" t="str">
@@ -2069,8 +2069,8 @@
         <f>IF(C45="","",'RC'!$D$2)</f>
         <v/>
       </c>
-      <c r="E45" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="E45" s="19" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F45" s="13" t="str">
@@ -2083,11 +2083,11 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B46" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B46" s="2" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C46" s="13" t="str">
@@ -2098,8 +2098,8 @@
         <f>IF(C46="","",'RC'!$D$2)</f>
         <v/>
       </c>
-      <c r="E46" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="E46" s="19" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F46" s="13" t="str">
@@ -2112,11 +2112,11 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B47" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B47" s="2" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C47" s="13" t="str">
@@ -2127,8 +2127,8 @@
         <f>IF(C47="","",'RC'!$D$2)</f>
         <v/>
       </c>
-      <c r="E47" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="E47" s="19" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F47" s="13" t="str">
@@ -2141,11 +2141,11 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B48" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B48" s="2" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C48" s="13" t="str">
@@ -2156,8 +2156,8 @@
         <f>IF(C48="","",'RC'!$D$3)</f>
         <v/>
       </c>
-      <c r="E48" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="E48" s="19" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F48" s="13" t="str">
@@ -2170,11 +2170,11 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B49" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B49" s="2" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C49" s="13" t="str">
@@ -2185,8 +2185,8 @@
         <f>IF(C49="","",'RC'!$D$3)</f>
         <v/>
       </c>
-      <c r="E49" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="E49" s="19" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F49" s="13" t="str">
@@ -2199,11 +2199,11 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B50" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B50" s="2" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C50" s="13" t="str">
@@ -2214,8 +2214,8 @@
         <f>IF(C50="","",'RC'!$D$3)</f>
         <v/>
       </c>
-      <c r="E50" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="E50" s="19" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F50" s="13" t="str">
@@ -2228,11 +2228,11 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B51" s="2" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C51" s="13" t="str">
@@ -2243,8 +2243,8 @@
         <f>IF(C51="","",'RC'!$D$3)</f>
         <v/>
       </c>
-      <c r="E51" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="E51" s="19" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F51" s="13" t="str">
@@ -2257,11 +2257,11 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B52" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B52" s="2" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C52" s="13" t="str">
@@ -2272,8 +2272,8 @@
         <f>IF(C52="","",'RC'!$D$3)</f>
         <v/>
       </c>
-      <c r="E52" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="E52" s="19" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F52" s="13" t="str">
@@ -2286,11 +2286,11 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B53" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B53" s="2" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C53" s="13" t="str">
@@ -2301,8 +2301,8 @@
         <f>IF(C53="","",'RC'!$D$3)</f>
         <v/>
       </c>
-      <c r="E53" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="E53" s="19" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F53" s="13" t="str">
@@ -2315,11 +2315,11 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="B54" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="B54" s="2" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C54" s="13" t="str">
@@ -2330,8 +2330,8 @@
         <f>IF(C54="","",'RC'!$D$3)</f>
         <v/>
       </c>
-      <c r="E54" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="E54" s="19" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F54" s="13" t="str">
@@ -2409,19 +2409,19 @@
         <f>CALC!B5</f>
         <v/>
       </c>
-      <c r="C2" s="30" t="str">
+      <c r="C2" s="21" t="str">
         <f>CALC!C5</f>
         <v/>
       </c>
-      <c r="D2" s="30" t="str">
+      <c r="D2" s="21" t="str">
         <f>CALC!E5</f>
         <v/>
       </c>
-      <c r="E2" s="31" t="str">
+      <c r="E2" s="22" t="str">
         <f>CALC!F5</f>
         <v/>
       </c>
-      <c r="F2" s="32" t="str">
+      <c r="F2" s="23" t="str">
         <f>CALC!D5</f>
         <v/>
       </c>
@@ -2435,19 +2435,19 @@
         <f>CALC!B6</f>
         <v/>
       </c>
-      <c r="C3" s="30" t="str">
+      <c r="C3" s="21" t="str">
         <f>CALC!C6</f>
         <v/>
       </c>
-      <c r="D3" s="30" t="str">
+      <c r="D3" s="21" t="str">
         <f>CALC!E6</f>
         <v/>
       </c>
-      <c r="E3" s="31" t="str">
+      <c r="E3" s="22" t="str">
         <f>CALC!F6</f>
         <v/>
       </c>
-      <c r="F3" s="32" t="str">
+      <c r="F3" s="23" t="str">
         <f>CALC!D6</f>
         <v/>
       </c>
@@ -2461,19 +2461,19 @@
         <f>CALC!B7</f>
         <v/>
       </c>
-      <c r="C4" s="30" t="str">
+      <c r="C4" s="21" t="str">
         <f>CALC!C7</f>
         <v/>
       </c>
-      <c r="D4" s="30" t="str">
+      <c r="D4" s="21" t="str">
         <f>CALC!E7</f>
         <v/>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="22" t="str">
         <f>CALC!F7</f>
         <v/>
       </c>
-      <c r="F4" s="32" t="str">
+      <c r="F4" s="23" t="str">
         <f>CALC!D7</f>
         <v/>
       </c>
@@ -2487,19 +2487,19 @@
         <f>CALC!B8</f>
         <v/>
       </c>
-      <c r="C5" s="30" t="str">
+      <c r="C5" s="21" t="str">
         <f>CALC!C8</f>
         <v/>
       </c>
-      <c r="D5" s="30" t="str">
+      <c r="D5" s="21" t="str">
         <f>CALC!E8</f>
         <v/>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="22" t="str">
         <f>CALC!F8</f>
         <v/>
       </c>
-      <c r="F5" s="32" t="str">
+      <c r="F5" s="23" t="str">
         <f>CALC!D8</f>
         <v/>
       </c>
@@ -2513,19 +2513,19 @@
         <f>CALC!B9</f>
         <v/>
       </c>
-      <c r="C6" s="30" t="str">
+      <c r="C6" s="21" t="str">
         <f>CALC!C9</f>
         <v/>
       </c>
-      <c r="D6" s="30" t="str">
+      <c r="D6" s="21" t="str">
         <f>CALC!E9</f>
         <v/>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="22" t="str">
         <f>CALC!F9</f>
         <v/>
       </c>
-      <c r="F6" s="32" t="str">
+      <c r="F6" s="23" t="str">
         <f>CALC!D9</f>
         <v/>
       </c>
@@ -2539,19 +2539,19 @@
         <f>CALC!B10</f>
         <v/>
       </c>
-      <c r="C7" s="30" t="str">
+      <c r="C7" s="21" t="str">
         <f>CALC!C10</f>
         <v/>
       </c>
-      <c r="D7" s="30" t="str">
+      <c r="D7" s="21" t="str">
         <f>CALC!E10</f>
         <v/>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="22" t="str">
         <f>CALC!F10</f>
         <v/>
       </c>
-      <c r="F7" s="32" t="str">
+      <c r="F7" s="23" t="str">
         <f>CALC!D10</f>
         <v/>
       </c>
@@ -2565,19 +2565,19 @@
         <f>CALC!B11</f>
         <v/>
       </c>
-      <c r="C8" s="30" t="str">
+      <c r="C8" s="21" t="str">
         <f>CALC!C11</f>
         <v/>
       </c>
-      <c r="D8" s="30" t="str">
+      <c r="D8" s="21" t="str">
         <f>CALC!E11</f>
         <v/>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="22" t="str">
         <f>CALC!F11</f>
         <v/>
       </c>
-      <c r="F8" s="32" t="str">
+      <c r="F8" s="23" t="str">
         <f>CALC!D11</f>
         <v/>
       </c>
@@ -2591,19 +2591,19 @@
         <f>CALC!B12</f>
         <v/>
       </c>
-      <c r="C9" s="30" t="str">
+      <c r="C9" s="21" t="str">
         <f>CALC!C12</f>
         <v/>
       </c>
-      <c r="D9" s="30" t="str">
+      <c r="D9" s="21" t="str">
         <f>CALC!E12</f>
         <v/>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="22" t="str">
         <f>CALC!F12</f>
         <v/>
       </c>
-      <c r="F9" s="32" t="str">
+      <c r="F9" s="23" t="str">
         <f>CALC!D12</f>
         <v/>
       </c>
@@ -2617,19 +2617,19 @@
         <f>CALC!B17</f>
         <v/>
       </c>
-      <c r="C10" s="30" t="str">
+      <c r="C10" s="21" t="str">
         <f>CALC!C17</f>
         <v/>
       </c>
-      <c r="D10" s="30" t="str">
+      <c r="D10" s="21" t="str">
         <f>CALC!E17</f>
         <v/>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="22" t="str">
         <f>CALC!F17</f>
         <v/>
       </c>
-      <c r="F10" s="32" t="str">
+      <c r="F10" s="23" t="str">
         <f>CALC!D17</f>
         <v/>
       </c>
@@ -2643,19 +2643,19 @@
         <f>CALC!B18</f>
         <v/>
       </c>
-      <c r="C11" s="30" t="str">
+      <c r="C11" s="21" t="str">
         <f>CALC!C18</f>
         <v/>
       </c>
-      <c r="D11" s="30" t="str">
+      <c r="D11" s="21" t="str">
         <f>CALC!E18</f>
         <v/>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="22" t="str">
         <f>CALC!F18</f>
         <v/>
       </c>
-      <c r="F11" s="32" t="str">
+      <c r="F11" s="23" t="str">
         <f>CALC!D18</f>
         <v/>
       </c>
@@ -2669,19 +2669,19 @@
         <f>CALC!B19</f>
         <v/>
       </c>
-      <c r="C12" s="30" t="str">
+      <c r="C12" s="21" t="str">
         <f>CALC!C19</f>
         <v/>
       </c>
-      <c r="D12" s="30" t="str">
+      <c r="D12" s="21" t="str">
         <f>CALC!E19</f>
         <v/>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="22" t="str">
         <f>CALC!F19</f>
         <v/>
       </c>
-      <c r="F12" s="32" t="str">
+      <c r="F12" s="23" t="str">
         <f>CALC!D19</f>
         <v/>
       </c>
@@ -2695,19 +2695,19 @@
         <f>CALC!B20</f>
         <v/>
       </c>
-      <c r="C13" s="30" t="str">
+      <c r="C13" s="21" t="str">
         <f>CALC!C20</f>
         <v/>
       </c>
-      <c r="D13" s="30" t="str">
+      <c r="D13" s="21" t="str">
         <f>CALC!E20</f>
         <v/>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="22" t="str">
         <f>CALC!F20</f>
         <v/>
       </c>
-      <c r="F13" s="32" t="str">
+      <c r="F13" s="23" t="str">
         <f>CALC!D20</f>
         <v/>
       </c>
@@ -2721,19 +2721,19 @@
         <f>CALC!B21</f>
         <v/>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="21" t="str">
         <f>CALC!C21</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="21" t="str">
         <f>CALC!E21</f>
         <v/>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="22" t="str">
         <f>CALC!F21</f>
         <v/>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="23" t="str">
         <f>CALC!D21</f>
         <v/>
       </c>
@@ -2747,19 +2747,19 @@
         <f>CALC!B22</f>
         <v/>
       </c>
-      <c r="C15" s="30" t="str">
+      <c r="C15" s="21" t="str">
         <f>CALC!C22</f>
         <v/>
       </c>
-      <c r="D15" s="30" t="str">
+      <c r="D15" s="21" t="str">
         <f>CALC!E22</f>
         <v/>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="22" t="str">
         <f>CALC!F22</f>
         <v/>
       </c>
-      <c r="F15" s="32" t="str">
+      <c r="F15" s="23" t="str">
         <f>CALC!D22</f>
         <v/>
       </c>
@@ -2773,19 +2773,19 @@
         <f>CALC!B23</f>
         <v/>
       </c>
-      <c r="C16" s="30" t="str">
+      <c r="C16" s="21" t="str">
         <f>CALC!C23</f>
         <v/>
       </c>
-      <c r="D16" s="30" t="str">
+      <c r="D16" s="21" t="str">
         <f>CALC!E23</f>
         <v/>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="22" t="str">
         <f>CALC!F23</f>
         <v/>
       </c>
-      <c r="F16" s="32" t="str">
+      <c r="F16" s="23" t="str">
         <f>CALC!D23</f>
         <v/>
       </c>
@@ -2799,19 +2799,19 @@
         <f>CALC!B24</f>
         <v/>
       </c>
-      <c r="C17" s="30" t="str">
+      <c r="C17" s="21" t="str">
         <f>CALC!C24</f>
         <v/>
       </c>
-      <c r="D17" s="30" t="str">
+      <c r="D17" s="21" t="str">
         <f>CALC!E24</f>
         <v/>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E17" s="22" t="str">
         <f>CALC!F24</f>
         <v/>
       </c>
-      <c r="F17" s="32" t="str">
+      <c r="F17" s="23" t="str">
         <f>CALC!D24</f>
         <v/>
       </c>
@@ -2833,7 +2833,7 @@
         <f>CALC!E29</f>
         <v/>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="22" t="str">
         <f>CALC!F29</f>
         <v/>
       </c>
@@ -2859,7 +2859,7 @@
         <f>CALC!E30</f>
         <v/>
       </c>
-      <c r="E19" s="31" t="str">
+      <c r="E19" s="22" t="str">
         <f>CALC!F30</f>
         <v/>
       </c>
@@ -2885,7 +2885,7 @@
         <f>CALC!E31</f>
         <v/>
       </c>
-      <c r="E20" s="31" t="str">
+      <c r="E20" s="22" t="str">
         <f>CALC!F31</f>
         <v/>
       </c>
@@ -2911,7 +2911,7 @@
         <f>CALC!E32</f>
         <v/>
       </c>
-      <c r="E21" s="31" t="str">
+      <c r="E21" s="22" t="str">
         <f>CALC!F32</f>
         <v/>
       </c>
@@ -2937,7 +2937,7 @@
         <f>CALC!E33</f>
         <v/>
       </c>
-      <c r="E22" s="31" t="str">
+      <c r="E22" s="22" t="str">
         <f>CALC!F33</f>
         <v/>
       </c>
@@ -2963,7 +2963,7 @@
         <f>CALC!E34</f>
         <v/>
       </c>
-      <c r="E23" s="31" t="str">
+      <c r="E23" s="22" t="str">
         <f>CALC!F34</f>
         <v/>
       </c>
@@ -2989,7 +2989,7 @@
         <f>CALC!E35</f>
         <v/>
       </c>
-      <c r="E24" s="31" t="str">
+      <c r="E24" s="22" t="str">
         <f>CALC!F35</f>
         <v/>
       </c>
@@ -3015,7 +3015,7 @@
         <f>CALC!E36</f>
         <v/>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="E25" s="22" t="str">
         <f>CALC!F36</f>
         <v/>
       </c>
@@ -3041,7 +3041,7 @@
         <f>CALC!E41</f>
         <v/>
       </c>
-      <c r="E26" s="31" t="str">
+      <c r="E26" s="22" t="str">
         <f>CALC!F41</f>
         <v/>
       </c>
@@ -3067,7 +3067,7 @@
         <f>CALC!E42</f>
         <v/>
       </c>
-      <c r="E27" s="31" t="str">
+      <c r="E27" s="22" t="str">
         <f>CALC!F42</f>
         <v/>
       </c>
@@ -3093,7 +3093,7 @@
         <f>CALC!E43</f>
         <v/>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="22" t="str">
         <f>CALC!F43</f>
         <v/>
       </c>
@@ -3119,7 +3119,7 @@
         <f>CALC!E44</f>
         <v/>
       </c>
-      <c r="E29" s="31" t="str">
+      <c r="E29" s="22" t="str">
         <f>CALC!F44</f>
         <v/>
       </c>
@@ -3145,7 +3145,7 @@
         <f>CALC!E45</f>
         <v/>
       </c>
-      <c r="E30" s="31" t="str">
+      <c r="E30" s="22" t="str">
         <f>CALC!F45</f>
         <v/>
       </c>
@@ -3171,7 +3171,7 @@
         <f>CALC!E46</f>
         <v/>
       </c>
-      <c r="E31" s="31" t="str">
+      <c r="E31" s="22" t="str">
         <f>CALC!F46</f>
         <v/>
       </c>
@@ -3197,7 +3197,7 @@
         <f>CALC!E47</f>
         <v/>
       </c>
-      <c r="E32" s="31" t="str">
+      <c r="E32" s="22" t="str">
         <f>CALC!F47</f>
         <v/>
       </c>
@@ -3223,7 +3223,7 @@
         <f>CALC!E48</f>
         <v/>
       </c>
-      <c r="E33" s="31" t="str">
+      <c r="E33" s="22" t="str">
         <f>CALC!F48</f>
         <v/>
       </c>
@@ -3249,7 +3249,7 @@
         <f>CALC!E49</f>
         <v/>
       </c>
-      <c r="E34" s="31" t="str">
+      <c r="E34" s="22" t="str">
         <f>CALC!F49</f>
         <v/>
       </c>
@@ -3275,7 +3275,7 @@
         <f>CALC!E50</f>
         <v/>
       </c>
-      <c r="E35" s="31" t="str">
+      <c r="E35" s="22" t="str">
         <f>CALC!F50</f>
         <v/>
       </c>
@@ -3301,7 +3301,7 @@
         <f>CALC!E51</f>
         <v/>
       </c>
-      <c r="E36" s="31" t="str">
+      <c r="E36" s="22" t="str">
         <f>CALC!F51</f>
         <v/>
       </c>
@@ -3327,7 +3327,7 @@
         <f>CALC!E52</f>
         <v/>
       </c>
-      <c r="E37" s="31" t="str">
+      <c r="E37" s="22" t="str">
         <f>CALC!F52</f>
         <v/>
       </c>
@@ -3353,7 +3353,7 @@
         <f>CALC!E53</f>
         <v/>
       </c>
-      <c r="E38" s="31" t="str">
+      <c r="E38" s="22" t="str">
         <f>CALC!F53</f>
         <v/>
       </c>
@@ -3379,7 +3379,7 @@
         <f>CALC!E54</f>
         <v/>
       </c>
-      <c r="E39" s="31" t="str">
+      <c r="E39" s="22" t="str">
         <f>CALC!F54</f>
         <v/>
       </c>
@@ -3398,7 +3398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75A030D-E306-41FB-BE6C-FB2DF06B6277}">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E34" sqref="E34:E63"/>
     </sheetView>
   </sheetViews>
@@ -3415,14 +3415,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -3769,7 +3769,7 @@
       <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3936,14 +3936,14 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
@@ -4566,7 +4566,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="20" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4716,7 +4716,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="20" t="s">
         <v>56</v>
       </c>
     </row>

--- a/src/test/resources/TestDriver/TestEvent/Model/EVENT_TEST.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/Model/EVENT_TEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED9FF3F-6829-4CAF-AFB6-71014523F813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECFABA5-F430-4156-B2ED-D7073E0D572D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORIG" sheetId="2" r:id="rId1"/>
@@ -801,7 +801,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G8"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1045,8 +1045,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1111,7 @@
         <v/>
       </c>
       <c r="B5" s="2" t="str">
-        <f>IF(A5="","",A5)</f>
+        <f>IF(A5="","",ORIG!$B$2)</f>
         <v/>
       </c>
       <c r="C5" s="13" t="str">
@@ -1140,7 +1140,7 @@
         <v/>
       </c>
       <c r="B6" s="2" t="str">
-        <f t="shared" ref="B6:B12" si="1">IF(A6="","",A6)</f>
+        <f>IF(A6="","",ORIG!$B$2)</f>
         <v/>
       </c>
       <c r="C6" s="13" t="str">
@@ -1165,11 +1165,11 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
-        <f t="shared" ref="A7:A12" si="2">IF(A6="","",A6)</f>
+        <f t="shared" ref="A7:A12" si="1">IF(A6="","",A6)</f>
         <v/>
       </c>
       <c r="B7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A7="","",ORIG!$B$2)</f>
         <v/>
       </c>
       <c r="C7" s="13" t="str">
@@ -1194,11 +1194,11 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A8="","",ORIG!$B$2)</f>
         <v/>
       </c>
       <c r="C8" s="13" t="str">
@@ -1223,11 +1223,11 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A9="","",ORIG!$B$3)</f>
         <v/>
       </c>
       <c r="C9" s="13" t="str">
@@ -1252,11 +1252,11 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A10="","",ORIG!$B$3)</f>
         <v/>
       </c>
       <c r="C10" s="13" t="str">
@@ -1281,11 +1281,11 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A11="","",ORIG!$B$3)</f>
         <v/>
       </c>
       <c r="C11" s="13" t="str">
@@ -1310,11 +1310,11 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A12="","",ORIG!$B$3)</f>
         <v/>
       </c>
       <c r="C12" s="13" t="str">
@@ -1388,7 +1388,7 @@
         <v/>
       </c>
       <c r="B17" s="2" t="str">
-        <f>IF(A17="","",A17)</f>
+        <f>IF(A17="","",INT_ACC!$B$2)</f>
         <v/>
       </c>
       <c r="C17" s="13" t="str">
@@ -1400,7 +1400,7 @@
         <v/>
       </c>
       <c r="E17" s="19" t="str">
-        <f t="shared" ref="E17:E24" si="3">IF(D17="","",H17)</f>
+        <f t="shared" ref="E17:E24" si="2">IF(D17="","",H17)</f>
         <v/>
       </c>
       <c r="F17" s="13" t="str">
@@ -1417,7 +1417,7 @@
         <v/>
       </c>
       <c r="B18" s="2" t="str">
-        <f t="shared" ref="B18:B24" si="4">IF(A18="","",A18)</f>
+        <f>IF(A18="","",INT_ACC!$B$2)</f>
         <v/>
       </c>
       <c r="C18" s="13" t="str">
@@ -1429,7 +1429,7 @@
         <v/>
       </c>
       <c r="E18" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F18" s="13" t="str">
@@ -1442,11 +1442,11 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
-        <f t="shared" ref="A19:A24" si="5">IF(A18="","",A18)</f>
+        <f t="shared" ref="A19:A24" si="3">IF(A18="","",A18)</f>
         <v/>
       </c>
       <c r="B19" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(A19="","",INT_ACC!$B$2)</f>
         <v/>
       </c>
       <c r="C19" s="13" t="str">
@@ -1458,7 +1458,7 @@
         <v/>
       </c>
       <c r="E19" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F19" s="13" t="str">
@@ -1471,11 +1471,11 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B20" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(A20="","",INT_ACC!$B$2)</f>
         <v/>
       </c>
       <c r="C20" s="13" t="str">
@@ -1487,7 +1487,7 @@
         <v/>
       </c>
       <c r="E20" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F20" s="13" t="str">
@@ -1500,11 +1500,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B21" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(A21="","",INT_ACC!$B$3)</f>
         <v/>
       </c>
       <c r="C21" s="13" t="str">
@@ -1516,7 +1516,7 @@
         <v/>
       </c>
       <c r="E21" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F21" s="13" t="str">
@@ -1529,11 +1529,11 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B22" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(A22="","",INT_ACC!$B$3)</f>
         <v/>
       </c>
       <c r="C22" s="13" t="str">
@@ -1545,7 +1545,7 @@
         <v/>
       </c>
       <c r="E22" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F22" s="13" t="str">
@@ -1558,11 +1558,11 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B23" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(A23="","",INT_ACC!$B$3)</f>
         <v/>
       </c>
       <c r="C23" s="13" t="str">
@@ -1574,7 +1574,7 @@
         <v/>
       </c>
       <c r="E23" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F23" s="13" t="str">
@@ -1587,11 +1587,11 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B24" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(A24="","",INT_ACC!$B$3)</f>
         <v/>
       </c>
       <c r="C24" s="13" t="str">
@@ -1603,7 +1603,7 @@
         <v/>
       </c>
       <c r="E24" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F24" s="13" t="str">
@@ -1665,7 +1665,7 @@
         <v/>
       </c>
       <c r="B29" s="2" t="str">
-        <f>IF(A29="","",A29)</f>
+        <f>IF(A29="","",PMT!B4)</f>
         <v/>
       </c>
       <c r="C29" s="13" t="str">
@@ -1677,7 +1677,7 @@
         <v/>
       </c>
       <c r="E29" s="19" t="str">
-        <f t="shared" ref="E29:E36" si="6">IF(D29="","",H29)</f>
+        <f t="shared" ref="E29:E36" si="4">IF(D29="","",H29)</f>
         <v/>
       </c>
       <c r="F29" s="13" t="str">
@@ -1694,7 +1694,7 @@
         <v/>
       </c>
       <c r="B30" s="2" t="str">
-        <f t="shared" ref="B30:B36" si="7">IF(A30="","",A30)</f>
+        <f>IF(A30="","",PMT!B8)</f>
         <v/>
       </c>
       <c r="C30" s="13" t="str">
@@ -1706,7 +1706,7 @@
         <v/>
       </c>
       <c r="E30" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F30" s="13" t="str">
@@ -1719,11 +1719,11 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
-        <f t="shared" ref="A31:A36" si="8">IF(A30="","",A30)</f>
+        <f t="shared" ref="A31:A36" si="5">IF(A30="","",A30)</f>
         <v/>
       </c>
       <c r="B31" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(A31="","",PMT!B3)</f>
         <v/>
       </c>
       <c r="C31" s="13" t="str">
@@ -1735,7 +1735,7 @@
         <v/>
       </c>
       <c r="E31" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F31" s="13" t="str">
@@ -1748,11 +1748,11 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B32" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(A32="","",PMT!B7)</f>
         <v/>
       </c>
       <c r="C32" s="13" t="str">
@@ -1764,7 +1764,7 @@
         <v/>
       </c>
       <c r="E32" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F32" s="13" t="str">
@@ -1777,11 +1777,11 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B33" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(A33="","",PMT!B2)</f>
         <v/>
       </c>
       <c r="C33" s="13" t="str">
@@ -1793,7 +1793,7 @@
         <v/>
       </c>
       <c r="E33" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F33" s="13" t="str">
@@ -1806,11 +1806,11 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B34" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(A34="","",PMT!B3)</f>
         <v/>
       </c>
       <c r="C34" s="13" t="str">
@@ -1822,7 +1822,7 @@
         <v/>
       </c>
       <c r="E34" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F34" s="13" t="str">
@@ -1835,11 +1835,11 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B35" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(A35="","",PMT!B5)</f>
         <v/>
       </c>
       <c r="C35" s="13" t="str">
@@ -1851,7 +1851,7 @@
         <v/>
       </c>
       <c r="E35" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F35" s="13" t="str">
@@ -1864,11 +1864,11 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B36" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(A36="","",PMT!B6)</f>
         <v/>
       </c>
       <c r="C36" s="13" t="str">
@@ -1880,7 +1880,7 @@
         <v/>
       </c>
       <c r="E36" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F36" s="13" t="str">
@@ -1942,7 +1942,7 @@
         <v/>
       </c>
       <c r="B41" s="2" t="str">
-        <f t="shared" ref="B41:B54" si="9">IF(A41="","",A41)</f>
+        <f>IF(A41="","",'RC'!$B$2)</f>
         <v/>
       </c>
       <c r="C41" s="13" t="str">
@@ -1954,7 +1954,7 @@
         <v/>
       </c>
       <c r="E41" s="19" t="str">
-        <f t="shared" ref="E41:E54" si="10">IF(D41="","",H41)</f>
+        <f t="shared" ref="E41:E54" si="6">IF(D41="","",H41)</f>
         <v/>
       </c>
       <c r="F41" s="13" t="str">
@@ -1967,11 +1967,11 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
-        <f t="shared" ref="A42:A54" si="11">IF(A41="","",A41)</f>
+        <f t="shared" ref="A42:A54" si="7">IF(A41="","",A41)</f>
         <v/>
       </c>
       <c r="B42" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(A42="","",'RC'!$B$2)</f>
         <v/>
       </c>
       <c r="C42" s="13" t="str">
@@ -1983,7 +1983,7 @@
         <v/>
       </c>
       <c r="E42" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F42" s="13" t="str">
@@ -1996,11 +1996,11 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B43" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(A43="","",'RC'!$B$2)</f>
         <v/>
       </c>
       <c r="C43" s="13" t="str">
@@ -2012,7 +2012,7 @@
         <v/>
       </c>
       <c r="E43" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F43" s="13" t="str">
@@ -2025,11 +2025,11 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B44" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(A44="","",'RC'!$B$2)</f>
         <v/>
       </c>
       <c r="C44" s="13" t="str">
@@ -2041,7 +2041,7 @@
         <v/>
       </c>
       <c r="E44" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F44" s="13" t="str">
@@ -2054,11 +2054,11 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B45" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(A45="","",'RC'!$B$2)</f>
         <v/>
       </c>
       <c r="C45" s="13" t="str">
@@ -2070,7 +2070,7 @@
         <v/>
       </c>
       <c r="E45" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F45" s="13" t="str">
@@ -2083,11 +2083,11 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B46" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(A46="","",'RC'!$B$2)</f>
         <v/>
       </c>
       <c r="C46" s="13" t="str">
@@ -2099,7 +2099,7 @@
         <v/>
       </c>
       <c r="E46" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F46" s="13" t="str">
@@ -2112,11 +2112,11 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B47" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(A47="","",'RC'!$B$2)</f>
         <v/>
       </c>
       <c r="C47" s="13" t="str">
@@ -2128,7 +2128,7 @@
         <v/>
       </c>
       <c r="E47" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F47" s="13" t="str">
@@ -2141,11 +2141,11 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B48" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(A48="","",'RC'!$B$3)</f>
         <v/>
       </c>
       <c r="C48" s="13" t="str">
@@ -2157,7 +2157,7 @@
         <v/>
       </c>
       <c r="E48" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F48" s="13" t="str">
@@ -2170,11 +2170,11 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B49" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(A49="","",'RC'!$B$3)</f>
         <v/>
       </c>
       <c r="C49" s="13" t="str">
@@ -2186,7 +2186,7 @@
         <v/>
       </c>
       <c r="E49" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F49" s="13" t="str">
@@ -2199,11 +2199,11 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B50" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(A50="","",'RC'!$B$3)</f>
         <v/>
       </c>
       <c r="C50" s="13" t="str">
@@ -2215,7 +2215,7 @@
         <v/>
       </c>
       <c r="E50" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F50" s="13" t="str">
@@ -2228,11 +2228,11 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B51" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(A51="","",'RC'!$B$3)</f>
         <v/>
       </c>
       <c r="C51" s="13" t="str">
@@ -2244,7 +2244,7 @@
         <v/>
       </c>
       <c r="E51" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F51" s="13" t="str">
@@ -2257,11 +2257,11 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B52" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(A52="","",'RC'!$B$3)</f>
         <v/>
       </c>
       <c r="C52" s="13" t="str">
@@ -2273,7 +2273,7 @@
         <v/>
       </c>
       <c r="E52" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F52" s="13" t="str">
@@ -2286,11 +2286,11 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B53" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(A53="","",'RC'!$B$3)</f>
         <v/>
       </c>
       <c r="C53" s="13" t="str">
@@ -2302,7 +2302,7 @@
         <v/>
       </c>
       <c r="E53" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F53" s="13" t="str">
@@ -2315,11 +2315,11 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B54" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(A54="","",'RC'!$B$3)</f>
         <v/>
       </c>
       <c r="C54" s="13" t="str">
@@ -2331,7 +2331,7 @@
         <v/>
       </c>
       <c r="E54" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F54" s="13" t="str">
@@ -2365,8 +2365,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3398,8 +3398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75A030D-E306-41FB-BE6C-FB2DF06B6277}">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4130,7 +4130,7 @@
         <v>44595</v>
       </c>
       <c r="B42" s="7">
-        <v>44595</v>
+        <v>44592</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
@@ -4139,7 +4139,7 @@
         <v>43</v>
       </c>
       <c r="E42">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F42" t="s">
         <v>25</v>
@@ -4150,7 +4150,7 @@
         <v>44595</v>
       </c>
       <c r="B43" s="7">
-        <v>44595</v>
+        <v>44592</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
@@ -4170,7 +4170,7 @@
         <v>44595</v>
       </c>
       <c r="B44" s="7">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
@@ -4190,7 +4190,7 @@
         <v>44595</v>
       </c>
       <c r="B45" s="7">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
@@ -4230,7 +4230,7 @@
         <v>44595</v>
       </c>
       <c r="B47" s="7">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
@@ -4270,7 +4270,7 @@
         <v>44595</v>
       </c>
       <c r="B49" s="7">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
@@ -4290,7 +4290,7 @@
         <v>44595</v>
       </c>
       <c r="B50" s="7">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
@@ -4310,7 +4310,7 @@
         <v>44595</v>
       </c>
       <c r="B51" s="7">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
@@ -4330,7 +4330,7 @@
         <v>44595</v>
       </c>
       <c r="B52" s="7">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
@@ -4350,7 +4350,7 @@
         <v>44595</v>
       </c>
       <c r="B53" s="7">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
@@ -4370,7 +4370,7 @@
         <v>44595</v>
       </c>
       <c r="B54" s="7">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
@@ -4390,7 +4390,7 @@
         <v>44595</v>
       </c>
       <c r="B55" s="7">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
@@ -4410,7 +4410,7 @@
         <v>44595</v>
       </c>
       <c r="B56" s="7">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
@@ -4430,7 +4430,7 @@
         <v>44595</v>
       </c>
       <c r="B57" s="7">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
@@ -4450,7 +4450,7 @@
         <v>44595</v>
       </c>
       <c r="B58" s="7">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
@@ -4470,7 +4470,7 @@
         <v>44595</v>
       </c>
       <c r="B59" s="7">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
@@ -4490,7 +4490,7 @@
         <v>44595</v>
       </c>
       <c r="B60" s="7">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
@@ -4510,7 +4510,7 @@
         <v>44595</v>
       </c>
       <c r="B61" s="7">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
@@ -4530,7 +4530,7 @@
         <v>44595</v>
       </c>
       <c r="B62" s="7">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
@@ -4550,7 +4550,7 @@
         <v>44595</v>
       </c>
       <c r="B63" s="7">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
@@ -4843,7 +4843,7 @@
         <v>44595</v>
       </c>
       <c r="B83" s="17">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
@@ -4878,7 +4878,7 @@
         <v>44595</v>
       </c>
       <c r="B84" s="17">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>

--- a/src/test/resources/TestDriver/TestEvent/Model/EVENT_TEST.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/Model/EVENT_TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECFABA5-F430-4156-B2ED-D7073E0D572D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F3450-5079-460D-83F2-2B087FB208DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="59">
   <si>
     <t>Amount</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>RC</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_LOAN_TERM_FIRST</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_LOAN_STATUS_FIRST</t>
   </si>
 </sst>
 </file>
@@ -960,11 +966,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -981,7 +985,7 @@
     <col min="11" max="11" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1015,8 +1019,14 @@
       <c r="K1" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="E2" s="14"/>
@@ -1024,7 +1034,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="E3" s="14"/>
@@ -3398,7 +3408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75A030D-E306-41FB-BE6C-FB2DF06B6277}">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestDriver/TestEvent/Model/EVENT_TEST.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/Model/EVENT_TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F3450-5079-460D-83F2-2B087FB208DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2742F02-7CE2-4E69-A68C-18B7ABCC50B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="61">
   <si>
     <t>Amount</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>ATTRIBUTE_LOAN_STATUS_FIRST</t>
+  </si>
+  <si>
+    <t>ATT_LT_FIR</t>
+  </si>
+  <si>
+    <t>ATT_LS_FIR</t>
   </si>
 </sst>
 </file>
@@ -898,7 +904,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1033,6 +1039,8 @@
       <c r="H2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
@@ -1041,6 +1049,8 @@
       <c r="H3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1053,10 +1063,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,7 +1974,7 @@
         <v/>
       </c>
       <c r="E41" s="19" t="str">
-        <f t="shared" ref="E41:E54" si="6">IF(D41="","",H41)</f>
+        <f t="shared" ref="E41:E58" si="6">IF(D41="","",H41)</f>
         <v/>
       </c>
       <c r="F41" s="13" t="str">
@@ -1977,7 +1987,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
-        <f t="shared" ref="A42:A54" si="7">IF(A41="","",A41)</f>
+        <f t="shared" ref="A42:A58" si="7">IF(A41="","",A41)</f>
         <v/>
       </c>
       <c r="B42" s="2" t="str">
@@ -2350,6 +2360,122 @@
       </c>
       <c r="H54" s="16" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B55" s="2" t="str">
+        <f>IF(A55="","",'RC'!$B$2)</f>
+        <v/>
+      </c>
+      <c r="C55" s="13" t="str">
+        <f>IF(B55="","",'RC'!$C$3)</f>
+        <v/>
+      </c>
+      <c r="D55" s="13" t="str">
+        <f>IF(C55="","",'RC'!$D$2)</f>
+        <v/>
+      </c>
+      <c r="E55" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F55" s="13" t="str">
+        <f>IF(E48="","",'RC'!L2)</f>
+        <v/>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B56" s="2" t="str">
+        <f>IF(A56="","",'RC'!$B$2)</f>
+        <v/>
+      </c>
+      <c r="C56" s="13" t="str">
+        <f>IF(B56="","",'RC'!$C$3)</f>
+        <v/>
+      </c>
+      <c r="D56" s="13" t="str">
+        <f>IF(C56="","",'RC'!$D$2)</f>
+        <v/>
+      </c>
+      <c r="E56" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F56" s="13" t="str">
+        <f>IF(E49="","",'RC'!M2)</f>
+        <v/>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B57" s="2" t="str">
+        <f>IF(A57="","",'RC'!$B$3)</f>
+        <v/>
+      </c>
+      <c r="C57" s="13" t="str">
+        <f>IF(B57="","",'RC'!$C$3)</f>
+        <v/>
+      </c>
+      <c r="D57" s="13" t="str">
+        <f>IF(C57="","",'RC'!$D$3)</f>
+        <v/>
+      </c>
+      <c r="E57" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F57" s="13" t="str">
+        <f>IF(E50="","",'RC'!L3)</f>
+        <v/>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B58" s="2" t="str">
+        <f>IF(A58="","",'RC'!$B$3)</f>
+        <v/>
+      </c>
+      <c r="C58" s="13" t="str">
+        <f>IF(B58="","",'RC'!$C$3)</f>
+        <v/>
+      </c>
+      <c r="D58" s="13" t="str">
+        <f>IF(C58="","",'RC'!$D$3)</f>
+        <v/>
+      </c>
+      <c r="E58" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F58" s="13" t="str">
+        <f>IF(E51="","",'RC'!M3)</f>
+        <v/>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2373,10 +2499,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3398,6 +3524,110 @@
         <v/>
       </c>
     </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="str">
+        <f>CALC!A55</f>
+        <v/>
+      </c>
+      <c r="B40" s="15" t="str">
+        <f>CALC!B55</f>
+        <v/>
+      </c>
+      <c r="C40" s="16" t="str">
+        <f>CALC!C55</f>
+        <v/>
+      </c>
+      <c r="D40" s="16" t="str">
+        <f>CALC!E55</f>
+        <v/>
+      </c>
+      <c r="E40" s="22" t="str">
+        <f>CALC!F55</f>
+        <v/>
+      </c>
+      <c r="F40" s="16" t="str">
+        <f>CALC!D55</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="str">
+        <f>CALC!A56</f>
+        <v/>
+      </c>
+      <c r="B41" s="15" t="str">
+        <f>CALC!B56</f>
+        <v/>
+      </c>
+      <c r="C41" s="16" t="str">
+        <f>CALC!C56</f>
+        <v/>
+      </c>
+      <c r="D41" s="16" t="str">
+        <f>CALC!E56</f>
+        <v/>
+      </c>
+      <c r="E41" s="22" t="str">
+        <f>CALC!F56</f>
+        <v/>
+      </c>
+      <c r="F41" s="16" t="str">
+        <f>CALC!D56</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="str">
+        <f>CALC!A57</f>
+        <v/>
+      </c>
+      <c r="B42" s="15" t="str">
+        <f>CALC!B57</f>
+        <v/>
+      </c>
+      <c r="C42" s="16" t="str">
+        <f>CALC!C57</f>
+        <v/>
+      </c>
+      <c r="D42" s="16" t="str">
+        <f>CALC!E57</f>
+        <v/>
+      </c>
+      <c r="E42" s="22" t="str">
+        <f>CALC!F57</f>
+        <v/>
+      </c>
+      <c r="F42" s="16" t="str">
+        <f>CALC!D57</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="str">
+        <f>CALC!A58</f>
+        <v/>
+      </c>
+      <c r="B43" s="15" t="str">
+        <f>CALC!B58</f>
+        <v/>
+      </c>
+      <c r="C43" s="16" t="str">
+        <f>CALC!C58</f>
+        <v/>
+      </c>
+      <c r="D43" s="16" t="str">
+        <f>CALC!E58</f>
+        <v/>
+      </c>
+      <c r="E43" s="22" t="str">
+        <f>CALC!F58</f>
+        <v/>
+      </c>
+      <c r="F43" s="16" t="str">
+        <f>CALC!D58</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3406,10 +3636,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75A030D-E306-41FB-BE6C-FB2DF06B6277}">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4808,12 +5038,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>1</v>
       </c>
@@ -4847,8 +5077,14 @@
       <c r="K82" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
         <v>44595</v>
       </c>
@@ -4882,8 +5118,14 @@
       <c r="K83" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="14">
+        <v>12</v>
+      </c>
+      <c r="M83" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
         <v>44595</v>
       </c>
@@ -4915,6 +5157,12 @@
         <v>4</v>
       </c>
       <c r="K84" s="14">
+        <v>4</v>
+      </c>
+      <c r="L84" s="14">
+        <v>12</v>
+      </c>
+      <c r="M84" s="14">
         <v>4</v>
       </c>
     </row>
